--- a/data/trans_dic/P64D$particular_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Habitat-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.7992562839103038</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.664520197123973</v>
+        <v>0.6645201971239731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7412407202710738</v>
+        <v>0.7412407202710737</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7520442574679647</v>
+        <v>0.7532050064662575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6137287790269591</v>
+        <v>0.6147823401828453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.705844449213085</v>
+        <v>0.7044523771003021</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8415454553891777</v>
+        <v>0.8432925486099042</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7091218174989061</v>
+        <v>0.712545939117544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7733695528618523</v>
+        <v>0.7732412846607516</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.6358293329852029</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7030710155668488</v>
+        <v>0.7030710155668489</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7072288909593039</v>
+        <v>0.7071572548859585</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5877708298568323</v>
+        <v>0.5934830389708013</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6727685737486708</v>
+        <v>0.6715101108359653</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7895924688268448</v>
+        <v>0.7920129315106988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6731752757360366</v>
+        <v>0.6798999505305781</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7362025866251329</v>
+        <v>0.7278944423090683</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8038396920637787</v>
+        <v>0.8038396920637785</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7135380795550792</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7513292223977441</v>
+        <v>0.7487307751818296</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6687415906886929</v>
+        <v>0.6644071629295517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.725953892896638</v>
+        <v>0.7312323623218167</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8494787854224137</v>
+        <v>0.8506045767325908</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.756581028216665</v>
+        <v>0.7534268979365953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7943117626700695</v>
+        <v>0.7965513897133382</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6063819520702038</v>
+        <v>0.6063819520702037</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.4788269364486624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5471419333445416</v>
+        <v>0.5471419333445418</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.556786211360486</v>
+        <v>0.5564297232535662</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4377346138338954</v>
+        <v>0.4383752238636718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5178870042564957</v>
+        <v>0.5174292526783379</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6511164317879888</v>
+        <v>0.6520204779911222</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5243553170026608</v>
+        <v>0.5223065278799375</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5819169457376893</v>
+        <v>0.5820160446866639</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7330281230803117</v>
+        <v>0.733028123080312</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6119673632375902</v>
+        <v>0.61196736323759</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.679915235718631</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7098972840323038</v>
+        <v>0.7078510502894906</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5897120341572002</v>
+        <v>0.588728593235382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6643020044436981</v>
+        <v>0.6638124359568103</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7553659590487641</v>
+        <v>0.755364499758494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6352494165956197</v>
+        <v>0.6345153015326277</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6961865109463926</v>
+        <v>0.6968185156096185</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>275008</v>
+        <v>275433</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>169711</v>
+        <v>170003</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>453298</v>
+        <v>452404</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>307737</v>
+        <v>308376</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>196090</v>
+        <v>197037</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>496663</v>
+        <v>496580</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>439087</v>
+        <v>439043</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>259394</v>
+        <v>261915</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>714597</v>
+        <v>713261</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>490223</v>
+        <v>491726</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>297085</v>
+        <v>300053</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>781975</v>
+        <v>773151</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>309841</v>
+        <v>308770</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>222103</v>
+        <v>220664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>540481</v>
+        <v>544411</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>350317</v>
+        <v>350782</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>251276</v>
+        <v>250229</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>591375</v>
+        <v>593042</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>283552</v>
+        <v>283370</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>193310</v>
+        <v>193593</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>492447</v>
+        <v>492012</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>331591</v>
+        <v>332051</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>231563</v>
+        <v>230658</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>553332</v>
+        <v>553426</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1354620</v>
+        <v>1350716</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>879602</v>
+        <v>878135</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2258475</v>
+        <v>2256810</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1441383</v>
+        <v>1441380</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>947525</v>
+        <v>946430</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2366875</v>
+        <v>2369023</v>
       </c>
     </row>
     <row r="24">
